--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/UTAH_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/UTAH_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1123"/>
+  <dimension ref="A1:D1117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,20 +452,20 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
         <v>7</v>
       </c>
       <c r="D7">
-        <v>0.0009673852957435047</v>
+        <v>0.0009673852957435048</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -535,7 +535,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C13">
@@ -625,7 +625,7 @@
         <v>7</v>
       </c>
       <c r="D19">
-        <v>0.0009673852957435047</v>
+        <v>0.0009673852957435048</v>
       </c>
     </row>
     <row r="20">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C30">
@@ -1031,7 +1031,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C50">
@@ -1478,7 +1478,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C84">
@@ -1504,7 +1504,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C86">
@@ -1712,7 +1712,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C102">
@@ -1725,7 +1725,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C103">
@@ -1738,7 +1738,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C104">
@@ -1886,7 +1886,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C115">
@@ -2021,7 +2021,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C125">
@@ -2047,7 +2047,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2104,7 +2104,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C131">
@@ -2215,7 +2215,7 @@
         <v>7</v>
       </c>
       <c r="D139">
-        <v>0.0009673852957435047</v>
+        <v>0.0009673852957435048</v>
       </c>
     </row>
     <row r="140">
@@ -2337,7 +2337,7 @@
         <v>7</v>
       </c>
       <c r="D148">
-        <v>0.0009673852957435047</v>
+        <v>0.0009673852957435048</v>
       </c>
     </row>
     <row r="149">
@@ -2395,7 +2395,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C153">
@@ -2473,7 +2473,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C159">
@@ -2538,12 +2538,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C164">
@@ -2582,7 +2582,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C167">
@@ -2634,7 +2634,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C171">
@@ -2654,7 +2654,7 @@
         <v>7</v>
       </c>
       <c r="D172">
-        <v>0.0009673852957435047</v>
+        <v>0.0009673852957435048</v>
       </c>
     </row>
     <row r="173">
@@ -2712,7 +2712,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C177">
@@ -2751,7 +2751,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C180">
@@ -2803,7 +2803,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C184">
@@ -2855,7 +2855,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C188">
@@ -3011,7 +3011,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C200">
@@ -3115,7 +3115,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C208">
@@ -3128,7 +3128,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C209">
@@ -3141,7 +3141,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C210">
@@ -3167,7 +3167,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C212">
@@ -3310,7 +3310,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C223">
@@ -3369,7 +3369,7 @@
         <v>7</v>
       </c>
       <c r="D227">
-        <v>0.0009673852957435047</v>
+        <v>0.0009673852957435048</v>
       </c>
     </row>
     <row r="228">
@@ -3414,7 +3414,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C231">
@@ -3479,7 +3479,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C236">
@@ -3492,7 +3492,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C237">
@@ -3505,7 +3505,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C238">
@@ -3679,7 +3679,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C251">
@@ -3744,7 +3744,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C256">
@@ -3796,7 +3796,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C260">
@@ -3926,7 +3926,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C270">
@@ -3952,14 +3952,14 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C272">
         <v>7</v>
       </c>
       <c r="D272">
-        <v>0.0009673852957435047</v>
+        <v>0.0009673852957435048</v>
       </c>
     </row>
     <row r="273">
@@ -3978,7 +3978,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C274">
@@ -3991,7 +3991,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C275">
@@ -4017,7 +4017,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C277">
@@ -4069,7 +4069,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C281">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C285">
@@ -4139,7 +4139,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C286">
@@ -4185,13 +4185,13 @@
         <v>7</v>
       </c>
       <c r="D289">
-        <v>0.0009673852957435047</v>
+        <v>0.0009673852957435048</v>
       </c>
     </row>
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C290">
@@ -4217,7 +4217,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C292">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C293">
@@ -4269,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C296">
@@ -4282,20 +4282,20 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C297">
         <v>67</v>
       </c>
       <c r="D297">
-        <v>0.009259259259259259</v>
+        <v>0.00925925925925926</v>
       </c>
     </row>
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C298">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C299">
@@ -4354,7 +4354,7 @@
         <v>7</v>
       </c>
       <c r="D302">
-        <v>0.0009673852957435047</v>
+        <v>0.0009673852957435048</v>
       </c>
     </row>
     <row r="303">
@@ -4373,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C304">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C305">
@@ -4425,7 +4425,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C308">
@@ -4438,7 +4438,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C309">
@@ -4471,7 +4471,7 @@
         <v>7</v>
       </c>
       <c r="D311">
-        <v>0.0009673852957435047</v>
+        <v>0.0009673852957435048</v>
       </c>
     </row>
     <row r="312">
@@ -4516,7 +4516,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C315">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C316">
@@ -4555,7 +4555,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C318">
@@ -4581,7 +4581,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C320">
@@ -4776,7 +4776,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C335">
@@ -4796,13 +4796,13 @@
         <v>7</v>
       </c>
       <c r="D336">
-        <v>0.0009673852957435047</v>
+        <v>0.0009673852957435048</v>
       </c>
     </row>
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C337">
@@ -4828,7 +4828,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C339">
@@ -4854,7 +4854,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C341">
@@ -4893,7 +4893,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C344">
@@ -4906,7 +4906,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C345">
@@ -5028,7 +5028,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C354">
@@ -5080,7 +5080,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C358">
@@ -5093,14 +5093,14 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C359">
         <v>7</v>
       </c>
       <c r="D359">
-        <v>0.0009673852957435047</v>
+        <v>0.0009673852957435048</v>
       </c>
     </row>
     <row r="360">
@@ -5132,7 +5132,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C362">
@@ -5158,7 +5158,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C364">
@@ -5223,7 +5223,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C369">
@@ -5243,7 +5243,7 @@
         <v>7</v>
       </c>
       <c r="D370">
-        <v>0.0009673852957435047</v>
+        <v>0.0009673852957435048</v>
       </c>
     </row>
     <row r="371">
@@ -5262,20 +5262,20 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C372">
         <v>7</v>
       </c>
       <c r="D372">
-        <v>0.0009673852957435047</v>
+        <v>0.0009673852957435048</v>
       </c>
     </row>
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C373">
@@ -5288,7 +5288,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C374">
@@ -5347,13 +5347,13 @@
         <v>7</v>
       </c>
       <c r="D378">
-        <v>0.0009673852957435047</v>
+        <v>0.0009673852957435048</v>
       </c>
     </row>
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C379">
@@ -5366,7 +5366,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C380">
@@ -5392,7 +5392,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C382">
@@ -5444,7 +5444,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C386">
@@ -5457,7 +5457,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C387">
@@ -5483,7 +5483,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C389">
@@ -5553,7 +5553,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C394">
@@ -5566,7 +5566,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C395">
@@ -5605,7 +5605,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C398">
@@ -5631,7 +5631,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C400">
@@ -5644,14 +5644,14 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C401">
         <v>7</v>
       </c>
       <c r="D401">
-        <v>0.0009673852957435047</v>
+        <v>0.0009673852957435048</v>
       </c>
     </row>
     <row r="402">
@@ -5722,7 +5722,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C407">
@@ -5787,7 +5787,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C412">
@@ -5800,7 +5800,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C413">
@@ -5839,7 +5839,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C416">
@@ -5917,7 +5917,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C422">
@@ -5930,7 +5930,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C423">
@@ -5969,7 +5969,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C426">
@@ -6015,7 +6015,7 @@
         <v>7</v>
       </c>
       <c r="D429">
-        <v>0.0009673852957435047</v>
+        <v>0.0009673852957435048</v>
       </c>
     </row>
     <row r="430">
@@ -6034,7 +6034,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C431">
@@ -6119,7 +6119,7 @@
         <v>7</v>
       </c>
       <c r="D437">
-        <v>0.0009673852957435047</v>
+        <v>0.0009673852957435048</v>
       </c>
     </row>
     <row r="438">
@@ -6177,7 +6177,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C442">
@@ -6190,7 +6190,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C443">
@@ -6216,7 +6216,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C445">
@@ -6229,7 +6229,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C446">
@@ -6255,7 +6255,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C448">
@@ -6281,7 +6281,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C450">
@@ -6294,7 +6294,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C451">
@@ -6333,7 +6333,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C454">
@@ -6346,7 +6346,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C455">
@@ -6398,7 +6398,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C459">
@@ -6411,7 +6411,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C460">
@@ -6431,13 +6431,13 @@
         <v>7</v>
       </c>
       <c r="D461">
-        <v>0.0009673852957435047</v>
+        <v>0.0009673852957435048</v>
       </c>
     </row>
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C462">
@@ -6450,7 +6450,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C463">
@@ -6483,7 +6483,7 @@
         <v>7</v>
       </c>
       <c r="D465">
-        <v>0.0009673852957435047</v>
+        <v>0.0009673852957435048</v>
       </c>
     </row>
     <row r="466">
@@ -6515,7 +6515,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C468">
@@ -6528,7 +6528,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C469">
@@ -6593,7 +6593,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C474">
@@ -6606,7 +6606,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C475">
@@ -6645,7 +6645,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C478">
@@ -6658,7 +6658,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C479">
@@ -6671,7 +6671,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C480">
@@ -6936,7 +6936,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C500">
@@ -7047,7 +7047,7 @@
         <v>7</v>
       </c>
       <c r="D508">
-        <v>0.0009673852957435047</v>
+        <v>0.0009673852957435048</v>
       </c>
     </row>
     <row r="509">
@@ -7281,7 +7281,7 @@
         <v>7</v>
       </c>
       <c r="D526">
-        <v>0.0009673852957435047</v>
+        <v>0.0009673852957435048</v>
       </c>
     </row>
     <row r="527">
@@ -7697,7 +7697,7 @@
         <v>7</v>
       </c>
       <c r="D558">
-        <v>0.0009673852957435047</v>
+        <v>0.0009673852957435048</v>
       </c>
     </row>
     <row r="559">
@@ -7742,7 +7742,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C562">
@@ -7962,7 +7962,7 @@
         <v>7</v>
       </c>
       <c r="D578">
-        <v>0.0009673852957435047</v>
+        <v>0.0009673852957435048</v>
       </c>
     </row>
     <row r="579">
@@ -8007,7 +8007,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C582">
@@ -8124,7 +8124,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C591">
@@ -8176,7 +8176,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C595">
@@ -8267,7 +8267,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C602">
@@ -8324,7 +8324,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C606">
@@ -8337,7 +8337,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C607">
@@ -8376,7 +8376,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C610">
@@ -8467,7 +8467,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C617">
@@ -8602,7 +8602,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C627">
@@ -8633,14 +8633,14 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C629">
         <v>7</v>
       </c>
       <c r="D629">
-        <v>0.0009673852957435047</v>
+        <v>0.0009673852957435048</v>
       </c>
     </row>
     <row r="630">
@@ -8672,7 +8672,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C632">
@@ -8685,7 +8685,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C633">
@@ -8698,7 +8698,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C634">
@@ -8711,7 +8711,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C635">
@@ -8724,7 +8724,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C636">
@@ -8737,7 +8737,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C637">
@@ -8750,7 +8750,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C638">
@@ -8828,7 +8828,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C644">
@@ -8854,7 +8854,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C646">
@@ -8867,7 +8867,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C647">
@@ -8880,7 +8880,7 @@
     <row r="648">
       <c r="B648" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C648">
@@ -8893,7 +8893,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C649">
@@ -9114,7 +9114,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C666">
@@ -9231,7 +9231,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C675">
@@ -9478,7 +9478,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C694">
@@ -9543,7 +9543,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C699">
@@ -9725,7 +9725,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C713">
@@ -10102,7 +10102,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C742">
@@ -10115,7 +10115,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C743">
@@ -10128,7 +10128,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C744">
@@ -10141,7 +10141,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C745">
@@ -10154,7 +10154,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C746">
@@ -10167,7 +10167,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C747">
@@ -10180,7 +10180,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C748">
@@ -10193,7 +10193,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C749">
@@ -10309,7 +10309,7 @@
         <v>7</v>
       </c>
       <c r="D757">
-        <v>0.0009673852957435047</v>
+        <v>0.0009673852957435048</v>
       </c>
     </row>
     <row r="758">
@@ -10471,7 +10471,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C770">
@@ -10614,7 +10614,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C781">
@@ -10640,7 +10640,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C783">
@@ -10679,7 +10679,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C786">
@@ -10757,7 +10757,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C792">
@@ -10809,7 +10809,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C796">
@@ -10913,7 +10913,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C804">
@@ -10939,7 +10939,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C806">
@@ -10991,7 +10991,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C810">
@@ -11056,7 +11056,7 @@
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C815">
@@ -11069,7 +11069,7 @@
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C816">
@@ -11121,7 +11121,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C820">
@@ -11134,7 +11134,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C821">
@@ -11199,7 +11199,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C826">
@@ -11316,7 +11316,7 @@
     <row r="835">
       <c r="B835" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C835">
@@ -11503,7 +11503,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C849">
@@ -11516,7 +11516,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C850">
@@ -11555,7 +11555,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C853">
@@ -11568,7 +11568,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C854">
@@ -11607,7 +11607,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C857">
@@ -11799,7 +11799,7 @@
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C871">
@@ -11890,7 +11890,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C878">
@@ -11968,7 +11968,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C884">
@@ -11981,7 +11981,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C885">
@@ -11994,7 +11994,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C886">
@@ -12007,7 +12007,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C887">
@@ -12446,7 +12446,7 @@
     <row r="920">
       <c r="B920" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C920">
@@ -12877,7 +12877,7 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C952">
@@ -12955,7 +12955,7 @@
     <row r="958">
       <c r="B958" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C958">
@@ -12968,7 +12968,7 @@
     <row r="959">
       <c r="B959" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C959">
@@ -13007,7 +13007,7 @@
     <row r="962">
       <c r="B962" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C962">
@@ -13033,7 +13033,7 @@
     <row r="964">
       <c r="B964" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C964">
@@ -13085,7 +13085,7 @@
     <row r="968">
       <c r="B968" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C968">
@@ -13285,7 +13285,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C983">
@@ -13363,7 +13363,7 @@
     <row r="989">
       <c r="B989" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C989">
@@ -13402,7 +13402,7 @@
     <row r="992">
       <c r="B992" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C992">
@@ -13493,7 +13493,7 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C999">
@@ -13506,7 +13506,7 @@
     <row r="1000">
       <c r="B1000" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1000">
@@ -13636,7 +13636,7 @@
     <row r="1010">
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1010">
@@ -13649,7 +13649,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1011">
@@ -13662,7 +13662,7 @@
     <row r="1012">
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1012">
@@ -13701,7 +13701,7 @@
     <row r="1015">
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1015">
@@ -13779,7 +13779,7 @@
     <row r="1021">
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1021">
@@ -13818,7 +13818,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1024">
@@ -13877,7 +13877,7 @@
         <v>7</v>
       </c>
       <c r="D1028">
-        <v>0.0009673852957435047</v>
+        <v>0.0009673852957435048</v>
       </c>
     </row>
     <row r="1029">
@@ -13929,7 +13929,7 @@
         <v>7</v>
       </c>
       <c r="D1032">
-        <v>0.0009673852957435047</v>
+        <v>0.0009673852957435048</v>
       </c>
     </row>
     <row r="1033">
@@ -13948,7 +13948,7 @@
     <row r="1034">
       <c r="B1034" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1034">
@@ -13968,13 +13968,13 @@
         <v>7</v>
       </c>
       <c r="D1035">
-        <v>0.0009673852957435047</v>
+        <v>0.0009673852957435048</v>
       </c>
     </row>
     <row r="1036">
       <c r="B1036" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1036">
@@ -14052,7 +14052,7 @@
     <row r="1042">
       <c r="B1042" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1042">
@@ -14078,7 +14078,7 @@
     <row r="1044">
       <c r="B1044" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1044">
@@ -14117,7 +14117,7 @@
     <row r="1047">
       <c r="B1047" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1047">
@@ -14543,7 +14543,7 @@
     <row r="1079">
       <c r="B1079" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1079">
@@ -14569,7 +14569,7 @@
     <row r="1081">
       <c r="B1081" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1081">
@@ -14582,7 +14582,7 @@
     <row r="1082">
       <c r="B1082" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1082">
@@ -14738,7 +14738,7 @@
     <row r="1094">
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1094">
@@ -14790,7 +14790,7 @@
     <row r="1098">
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1098">
@@ -14849,7 +14849,7 @@
         <v>7</v>
       </c>
       <c r="D1102">
-        <v>0.0009673852957435047</v>
+        <v>0.0009673852957435048</v>
       </c>
     </row>
     <row r="1103">
@@ -14907,7 +14907,7 @@
     <row r="1107">
       <c r="B1107" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1107">
@@ -14920,20 +14920,20 @@
     <row r="1108">
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1108">
         <v>7</v>
       </c>
       <c r="D1108">
-        <v>0.0009673852957435047</v>
+        <v>0.0009673852957435048</v>
       </c>
     </row>
     <row r="1109">
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1109">
@@ -14972,7 +14972,7 @@
     <row r="1112">
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1112">
@@ -15045,41 +15045,6 @@
       </c>
       <c r="D1117">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1119">
-      <c r="A1119" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 566,547</t>
-        </is>
-      </c>
-    </row>
-    <row r="1120">
-      <c r="A1120" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1121">
-      <c r="A1121" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1122">
-      <c r="A1122" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1123">
-      <c r="A1123" t="inlineStr">
-        <is>
-          <t>Mayo de 2023</t>
-        </is>
       </c>
     </row>
   </sheetData>
